--- a/End of February/prelim_feb.xlsx
+++ b/End of February/prelim_feb.xlsx
@@ -4608,7 +4608,7 @@
   <dimension ref="A1:BF216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
